--- a/resultado_optimizacion.xlsx
+++ b/resultado_optimizacion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
         <v>91</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
